--- a/project/메모/2023-08월백엔드과정.xlsx
+++ b/project/메모/2023-08월백엔드과정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6652cd1e50613fb2/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{18E469FB-86D7-463F-B637-78918F8FF213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF405A5-5F11-4386-AD14-A16692E64283}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A403BF4-BEFF-4297-8545-334FA2A0E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="272">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -939,29 +935,6 @@
       </rPr>
       <t>(진도)
 example 프로젝트</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSR과 CSR의 설명,차이
-TTV, TTI
-SPA, MPA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(진도)
-WEB/Array_test 패키지
-webp, webm많이씀</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1046,6 +1019,42 @@
 UDP, TCP 차이 ,특징
 반응형은 모바일 하이브리드 앱 만들기가 어려움</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSR과 CSR의 설명,차이
+TTV, TTI
+SPA, MPA
+webp, webm많이씀
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(진도)
+WEB/Array_test 패키지
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;토요일 학습 계획&gt;
+1.example 프로젝트 복습
+@@내용이 아직 익숙해질 필요가 있음
+2.Web/Array_text - ArrayList부분 보완
+3.화요일~금요일 진도 내용을 위주로 숙달시키는데 목표를 두자
+&lt;월요일 오후&gt;
+1.로그인샘플,아이디찾기,패스워드찾기 기능 구현
+&lt;화요일&gt;
+1.로그인,아이디,패스워드 찾기 기능 구현 및 화~금 내용 복습</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1421,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,23 +1452,119 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,107 +1575,8 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,6 +1584,9 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1592,25 +1601,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1636,6 +1626,22 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1655,7 +1661,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:I13" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1668,15 +1674,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{33F839B1-C598-49AA-B95E-87078F43F620}" name="일" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{99DEE7A8-96AF-4B98-A557-02FAB950AC77}" name="월" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D582F653-C3B8-4A9C-B698-F84318043686}" name="화" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{565323EF-E708-4100-A097-6B0A86005497}" name="수" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D5F273B7-D408-43B5-831C-27DA2A770C37}" name="목" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{52C2400A-21E7-4CBE-9A53-EBDC617CF400}" name="금" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{19A6F717-A604-4541-A4C6-CAE1EAB3F816}" name="토" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{25031584-82F6-41C3-AD4C-1E35FFB6CAF5}" name="비고" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{C359746C-146D-4A3D-8609-7B58FDCBFBAC}" name="비고2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{33F839B1-C598-49AA-B95E-87078F43F620}" name="일" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{99DEE7A8-96AF-4B98-A557-02FAB950AC77}" name="월" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D582F653-C3B8-4A9C-B698-F84318043686}" name="화" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{565323EF-E708-4100-A097-6B0A86005497}" name="수" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D5F273B7-D408-43B5-831C-27DA2A770C37}" name="목" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{52C2400A-21E7-4CBE-9A53-EBDC617CF400}" name="금" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{19A6F717-A604-4541-A4C6-CAE1EAB3F816}" name="토" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{25031584-82F6-41C3-AD4C-1E35FFB6CAF5}" name="비고" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C359746C-146D-4A3D-8609-7B58FDCBFBAC}" name="비고2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1981,64 +1987,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="28.125" customWidth="1"/>
+    <col min="1" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="40.75" customWidth="1"/>
     <col min="8" max="8" width="32.875" customWidth="1"/>
     <col min="9" max="9" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -2052,24 +2059,24 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="40"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2088,140 +2095,141 @@
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="42"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -2231,8 +2239,8 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -2260,1523 +2268,1523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF7584-46E4-457F-B0DE-5DA52BE23CD6}">
   <dimension ref="A1:A340"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A214" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.75" style="22" customWidth="1"/>
+    <col min="1" max="1" width="79.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>266</v>
+      <c r="A1" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>265</v>
+      <c r="A2" s="21" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>264</v>
+      <c r="A4" s="30" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>263</v>
+      <c r="A6" s="30" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>262</v>
+      <c r="A7" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>261</v>
+      <c r="A8" s="30" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>260</v>
+      <c r="A9" s="31" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>259</v>
+      <c r="A10" s="30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>258</v>
+      <c r="A11" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>257</v>
+      <c r="A12" s="30" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>256</v>
+      <c r="A13" s="30" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="30"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>255</v>
+      <c r="A15" s="30" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>254</v>
+      <c r="A16" s="30" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>253</v>
+      <c r="A17" s="30" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>252</v>
+      <c r="A18" s="20" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>251</v>
+      <c r="A19" s="30" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>250</v>
+      <c r="A21" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="20"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>249</v>
+      <c r="A23" s="30" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="30"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>248</v>
+      <c r="A25" s="30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>247</v>
+      <c r="A27" s="30" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>246</v>
+      <c r="A28" s="30" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>245</v>
+      <c r="A29" s="30" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>244</v>
+      <c r="A30" s="30" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>243</v>
+      <c r="A31" s="30" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>242</v>
+      <c r="A32" s="30" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>241</v>
+      <c r="A33" s="30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="30"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>240</v>
+      <c r="A35" s="30" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>239</v>
+      <c r="A36" s="30" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="20"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>238</v>
+      <c r="A39" s="30" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
-        <v>237</v>
+      <c r="A40" s="30" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
-        <v>236</v>
+      <c r="A41" s="30" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="20"/>
     </row>
     <row r="43" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>235</v>
+      <c r="A43" s="29" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="26">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="26">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="26"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32">
+    <row r="101" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="102" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
-        <v>200</v>
+      <c r="A102" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="25"/>
+      <c r="A103" s="21"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
-        <v>199</v>
+      <c r="A104" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>198</v>
+      <c r="A105" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
+      <c r="A106" s="20"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
-        <v>197</v>
+      <c r="A107" s="20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
-        <v>196</v>
+      <c r="A108" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
+      <c r="A109" s="20"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
-        <v>195</v>
+      <c r="A110" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
-        <v>194</v>
+      <c r="A111" s="20" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
-        <v>193</v>
+      <c r="A112" s="20" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
-        <v>192</v>
+      <c r="A113" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
+      <c r="A114" s="20"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
-        <v>191</v>
+      <c r="A115" s="20" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="24" t="s">
-        <v>190</v>
+      <c r="A116" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="24" t="s">
-        <v>189</v>
+      <c r="A117" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
-        <v>188</v>
+      <c r="A118" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="24" t="s">
-        <v>187</v>
+      <c r="A119" s="20" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="24" t="s">
-        <v>186</v>
+      <c r="A120" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="24" t="s">
-        <v>185</v>
+      <c r="A121" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
-        <v>184</v>
+      <c r="A122" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
+      <c r="A123" s="20"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
-        <v>183</v>
+      <c r="A124" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
+      <c r="A125" s="20"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>182</v>
+      <c r="A126" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
-        <v>181</v>
+      <c r="A127" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
+      <c r="A128" s="20"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
-        <v>180</v>
+      <c r="A129" s="20" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
-        <v>179</v>
+      <c r="A130" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="24" t="s">
-        <v>178</v>
+      <c r="A131" s="20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="24" t="s">
-        <v>177</v>
+      <c r="A132" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="e">
+      <c r="A133" s="20" t="e">
         <f>--다른위치 찾았을경우</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
-        <v>176</v>
+      <c r="A134" s="20" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="24" t="e">
+      <c r="A135" s="20" t="e">
         <f>--다른위치를 요청했을 경우</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A136" s="24" t="s">
-        <v>175</v>
+      <c r="A136" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="24"/>
+      <c r="A137" s="20"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="24" t="s">
-        <v>174</v>
+      <c r="A138" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
-        <v>173</v>
+      <c r="A139" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="24" t="s">
-        <v>172</v>
+      <c r="A140" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="24" t="s">
-        <v>171</v>
+      <c r="A141" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="24" t="s">
-        <v>170</v>
+      <c r="A142" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="24" t="s">
-        <v>169</v>
+      <c r="A143" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="24" t="s">
-        <v>168</v>
+      <c r="A144" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="24"/>
+      <c r="A145" s="20"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="24"/>
+      <c r="A146" s="20"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="24" t="s">
-        <v>167</v>
+      <c r="A147" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
-        <v>166</v>
+      <c r="A148" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="24" t="s">
-        <v>165</v>
+      <c r="A149" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="24" t="s">
-        <v>164</v>
+      <c r="A150" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="24"/>
+      <c r="A151" s="20"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="24" t="s">
-        <v>163</v>
+      <c r="A152" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="24" t="s">
-        <v>162</v>
+      <c r="A153" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="24" t="s">
-        <v>161</v>
+      <c r="A154" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="24"/>
+      <c r="A155" s="20"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="24"/>
+      <c r="A156" s="20"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="24" t="s">
-        <v>160</v>
+      <c r="A157" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="24" t="s">
-        <v>159</v>
+      <c r="A158" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="24" t="s">
-        <v>158</v>
+      <c r="A159" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="24" t="s">
-        <v>157</v>
+      <c r="A160" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="24"/>
+      <c r="A161" s="20"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="24" t="s">
-        <v>156</v>
+      <c r="A162" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="24" t="s">
-        <v>155</v>
+      <c r="A163" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="24" t="s">
-        <v>154</v>
+      <c r="A164" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="24" t="s">
-        <v>153</v>
+      <c r="A165" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="24"/>
+      <c r="A166" s="20"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="24" t="s">
-        <v>152</v>
+      <c r="A167" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="24" t="s">
-        <v>151</v>
+      <c r="A168" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="24"/>
+      <c r="A169" s="20"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="24" t="s">
-        <v>150</v>
+      <c r="A170" s="20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="24" t="s">
-        <v>149</v>
+      <c r="A171" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="24" t="s">
-        <v>148</v>
+      <c r="A172" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="24" t="s">
-        <v>147</v>
+      <c r="A173" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="24"/>
+      <c r="A174" s="20"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="24" t="s">
-        <v>146</v>
+      <c r="A175" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="s">
-        <v>145</v>
+      <c r="A176" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="24" t="s">
-        <v>144</v>
+      <c r="A177" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="24" t="s">
-        <v>143</v>
+      <c r="A178" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="s">
-        <v>142</v>
+      <c r="A179" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="24" t="s">
-        <v>141</v>
+      <c r="A180" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="24" t="s">
-        <v>140</v>
+      <c r="A181" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="24" t="s">
-        <v>139</v>
+      <c r="A182" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="24"/>
+      <c r="A183" s="20"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="s">
-        <v>138</v>
+      <c r="A184" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="24" t="s">
-        <v>137</v>
+      <c r="A185" s="20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="30" t="s">
-        <v>136</v>
+      <c r="A186" s="48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="30"/>
+      <c r="A187" s="48"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="30"/>
+      <c r="A188" s="48"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="30"/>
+      <c r="A189" s="48"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="30"/>
+      <c r="A190" s="48"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="30"/>
+      <c r="A191" s="48"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="30"/>
+      <c r="A192" s="48"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="30"/>
+      <c r="A193" s="48"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="30"/>
+      <c r="A194" s="48"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="30"/>
+      <c r="A195" s="48"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="30"/>
+      <c r="A196" s="48"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="30"/>
+      <c r="A197" s="48"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="30"/>
+      <c r="A198" s="48"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="30"/>
+      <c r="A199" s="48"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="30"/>
+      <c r="A200" s="48"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="30"/>
+      <c r="A201" s="48"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="30"/>
+      <c r="A202" s="48"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="30"/>
+      <c r="A203" s="48"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="30"/>
+      <c r="A204" s="48"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="30"/>
+      <c r="A205" s="48"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="30"/>
+      <c r="A206" s="48"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="30"/>
+      <c r="A207" s="48"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="30"/>
+      <c r="A208" s="48"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="30"/>
+      <c r="A209" s="48"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="30"/>
+      <c r="A210" s="48"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="30"/>
+      <c r="A211" s="48"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="30"/>
+      <c r="A212" s="48"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="30"/>
+      <c r="A213" s="48"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="24" t="s">
-        <v>135</v>
+      <c r="A214" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="24" t="s">
-        <v>134</v>
+      <c r="A215" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="24" t="s">
-        <v>133</v>
+      <c r="A216" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="24" t="s">
-        <v>132</v>
+      <c r="A217" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="24"/>
+      <c r="A218" s="20"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="24"/>
+      <c r="A219" s="20"/>
     </row>
     <row r="220" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="23" t="s">
-        <v>131</v>
+      <c r="A220" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="27" t="s">
-        <v>79</v>
+      <c r="A221" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="26" t="s">
-        <v>130</v>
+      <c r="A222" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="29" t="s">
-        <v>129</v>
+      <c r="A223" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="29"/>
+      <c r="A224" s="25"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="29" t="s">
-        <v>128</v>
+      <c r="A225" s="25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="29" t="s">
-        <v>127</v>
+      <c r="A226" s="25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="29" t="s">
-        <v>126</v>
+      <c r="A227" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="29" t="s">
-        <v>125</v>
+      <c r="A228" s="25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="29" t="s">
-        <v>124</v>
+      <c r="A229" s="25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="29"/>
+      <c r="A230" s="25"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="29"/>
+      <c r="A231" s="25"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="29" t="s">
-        <v>123</v>
+      <c r="A232" s="25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="29" t="s">
-        <v>122</v>
+      <c r="A233" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="29" t="s">
-        <v>121</v>
+      <c r="A234" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="29" t="s">
-        <v>120</v>
+      <c r="A235" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="29"/>
+      <c r="A236" s="25"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="29"/>
+      <c r="A237" s="25"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="29" t="s">
-        <v>91</v>
+      <c r="A238" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="29" t="s">
-        <v>119</v>
+      <c r="A239" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="29"/>
+      <c r="A240" s="25"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="29" t="s">
-        <v>118</v>
+      <c r="A241" s="25" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="29" t="e">
+      <c r="A242" s="25" t="e">
         <f>-- 싱글 페이지 애플리케이션이란?</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="29" t="s">
-        <v>117</v>
+      <c r="A243" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="29" t="s">
-        <v>116</v>
+      <c r="A244" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="29" t="s">
-        <v>115</v>
+      <c r="A245" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="29"/>
+      <c r="A246" s="25"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="29"/>
+      <c r="A247" s="25"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="29" t="s">
-        <v>114</v>
+      <c r="A248" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="29" t="s">
-        <v>113</v>
+      <c r="A249" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="29" t="s">
-        <v>112</v>
+      <c r="A250" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="29" t="s">
-        <v>111</v>
+      <c r="A251" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="29" t="s">
-        <v>110</v>
+      <c r="A252" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="29" t="s">
-        <v>109</v>
+      <c r="A253" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="29" t="s">
-        <v>108</v>
+      <c r="A254" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="29" t="s">
-        <v>107</v>
+      <c r="A255" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="29" t="s">
-        <v>106</v>
+      <c r="A256" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="29" t="s">
-        <v>105</v>
+      <c r="A257" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="29" t="s">
-        <v>104</v>
+      <c r="A258" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="29" t="s">
-        <v>103</v>
+      <c r="A259" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="29" t="s">
-        <v>102</v>
+      <c r="A260" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="29" t="s">
-        <v>101</v>
+      <c r="A261" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="29"/>
+      <c r="A262" s="25"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="29" t="s">
-        <v>93</v>
+      <c r="A263" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="29" t="s">
-        <v>100</v>
+      <c r="A264" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="29" t="s">
-        <v>99</v>
+      <c r="A265" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="29" t="s">
-        <v>98</v>
+      <c r="A266" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="29" t="s">
-        <v>97</v>
+      <c r="A267" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="29"/>
+      <c r="A268" s="25"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="29" t="s">
-        <v>97</v>
+      <c r="A269" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="29"/>
+      <c r="A270" s="25"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="29"/>
+      <c r="A271" s="25"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="29" t="s">
-        <v>96</v>
+      <c r="A272" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="29" t="e">
+      <c r="A273" s="25" t="e">
         <f>-- 멀티 페이지 애플리케이션</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="29" t="s">
-        <v>95</v>
+      <c r="A274" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="29"/>
+      <c r="A275" s="25"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="29" t="s">
-        <v>94</v>
+      <c r="A276" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="29" t="s">
-        <v>93</v>
+      <c r="A277" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="29" t="s">
-        <v>92</v>
+      <c r="A278" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="29"/>
+      <c r="A279" s="25"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="29" t="s">
-        <v>91</v>
+      <c r="A280" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="29" t="s">
-        <v>90</v>
+      <c r="A281" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="29"/>
+      <c r="A282" s="25"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="29" t="s">
-        <v>89</v>
+      <c r="A283" s="25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="29" t="s">
-        <v>88</v>
+      <c r="A284" s="25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="29" t="s">
-        <v>87</v>
+      <c r="A285" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="29" t="s">
-        <v>86</v>
+      <c r="A286" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="29" t="s">
-        <v>85</v>
+      <c r="A287" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="29" t="s">
-        <v>84</v>
+      <c r="A288" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="29" t="s">
-        <v>83</v>
+      <c r="A289" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="29" t="s">
-        <v>82</v>
+      <c r="A290" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="29" t="s">
-        <v>81</v>
+      <c r="A291" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="28" t="s">
-        <v>80</v>
+      <c r="A292" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="27" t="s">
-        <v>79</v>
+      <c r="A293" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="26" t="s">
-        <v>78</v>
+      <c r="A294" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="25" t="s">
-        <v>77</v>
+      <c r="A295" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="24" t="s">
-        <v>76</v>
+      <c r="A296" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="24" t="s">
-        <v>75</v>
+      <c r="A297" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="24"/>
+      <c r="A298" s="20"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="24" t="s">
-        <v>74</v>
+      <c r="A299" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="24"/>
+      <c r="A300" s="20"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="24" t="s">
-        <v>73</v>
+      <c r="A301" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="24"/>
+      <c r="A302" s="20"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="24" t="s">
-        <v>72</v>
+      <c r="A303" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="24"/>
+      <c r="A304" s="20"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="24" t="s">
-        <v>71</v>
+      <c r="A305" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="24"/>
+      <c r="A306" s="20"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="24" t="s">
-        <v>70</v>
+      <c r="A307" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="24"/>
+      <c r="A308" s="20"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="24" t="s">
-        <v>69</v>
+      <c r="A309" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="24" t="s">
-        <v>68</v>
+      <c r="A310" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="24" t="s">
-        <v>67</v>
+      <c r="A311" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="24" t="s">
-        <v>66</v>
+      <c r="A312" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="24" t="s">
-        <v>65</v>
+      <c r="A313" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="24" t="s">
-        <v>64</v>
+      <c r="A314" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="24" t="s">
-        <v>63</v>
+      <c r="A315" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="24"/>
+      <c r="A316" s="20"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="24" t="s">
-        <v>62</v>
+      <c r="A317" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="24" t="s">
-        <v>61</v>
+      <c r="A318" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="24"/>
+      <c r="A319" s="20"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="24" t="s">
-        <v>60</v>
+      <c r="A320" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="24" t="s">
-        <v>59</v>
+      <c r="A321" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="24" t="s">
-        <v>58</v>
+      <c r="A322" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="24" t="s">
-        <v>57</v>
+      <c r="A323" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="24"/>
+      <c r="A324" s="20"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="24" t="s">
-        <v>56</v>
+      <c r="A325" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="24"/>
+      <c r="A326" s="20"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="24" t="s">
-        <v>55</v>
+      <c r="A327" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="24" t="s">
-        <v>54</v>
+      <c r="A328" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="24" t="s">
-        <v>53</v>
+      <c r="A329" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="24" t="s">
-        <v>52</v>
+      <c r="A330" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="24" t="s">
-        <v>51</v>
+      <c r="A331" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="24" t="s">
-        <v>50</v>
+      <c r="A332" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="24" t="s">
-        <v>49</v>
+      <c r="A333" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="24" t="s">
-        <v>48</v>
+      <c r="A334" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="24" t="s">
-        <v>47</v>
+      <c r="A335" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="24"/>
+      <c r="A336" s="20"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="24" t="s">
-        <v>46</v>
+      <c r="A337" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="24" t="s">
-        <v>45</v>
+      <c r="A338" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="24" t="s">
-        <v>44</v>
+      <c r="A339" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="23" t="s">
-        <v>43</v>
+      <c r="A340" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/project/메모/2023-08월백엔드과정.xlsx
+++ b/project/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A403BF4-BEFF-4297-8545-334FA2A0E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F79BD-A5D5-4970-A062-A06230348568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="4020" yWindow="1035" windowWidth="21600" windowHeight="12420" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -1046,15 +1046,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;토요일 학습 계획&gt;
-1.example 프로젝트 복습
+    <r>
+      <t xml:space="preserve">&lt;토요일 학습 계획&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.example 프로젝트 복습
 @@내용이 아직 익숙해질 필요가 있음
 2.Web/Array_text - ArrayList부분 보완
-3.화요일~금요일 진도 내용을 위주로 숙달시키는데 목표를 두자
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.화요일~금요일 진도 내용을 위주로 숙달시키는데 목표를 두자
 &lt;월요일 오후&gt;
 1.로그인샘플,아이디찾기,패스워드찾기 기능 구현
 &lt;화요일&gt;
 1.로그인,아이디,패스워드 찾기 기능 구현 및 화~금 내용 복습</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1090,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1244,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3366FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1987,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/project/메모/2023-08월백엔드과정.xlsx
+++ b/project/메모/2023-08월백엔드과정.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F79BD-A5D5-4970-A062-A06230348568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD5A1B-9003-4181-98FA-E0D4BCB379FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1035" windowWidth="21600" windowHeight="12420" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
     <sheet name="8월2주" sheetId="2" r:id="rId2"/>
+    <sheet name="8월3주" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="273">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1080,6 +1081,10 @@
 &lt;화요일&gt;
 1.로그인,아이디,패스워드 찾기 기능 구현 및 화~금 내용 복습</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모하셈 3주차꺼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2021,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2302,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF7584-46E4-457F-B0DE-5DA52BE23CD6}">
   <dimension ref="A1:A340"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A214" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A252" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3829,4 +3834,1473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1290B4-C84E-48ED-9560-0F0A3DE8A9A3}">
+  <dimension ref="A1:A340"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.75" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+    </row>
+    <row r="42" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="26">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="26">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="26"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="21"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="20"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="20"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="20"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="20"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="20"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="20" t="e">
+        <f>--다른위치 찾았을경우</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="20" t="e">
+        <f>--다른위치를 요청했을 경우</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A136" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="20"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="20"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="20"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="20"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="20"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="20"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="20"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="20"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="20"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="48"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="48"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="48"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="48"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="48"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="48"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="48"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="48"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="48"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="48"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="48"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="48"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="48"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="48"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="48"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="48"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="48"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="48"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="48"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="48"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="48"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="48"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="48"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="48"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="48"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="48"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="48"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="20"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="20"/>
+    </row>
+    <row r="220" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="25"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="25"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="25"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="25"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="25"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="25"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="25" t="e">
+        <f>-- 싱글 페이지 애플리케이션이란?</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="25"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="25"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="25"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="25"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="25"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="25"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="25" t="e">
+        <f>-- 멀티 페이지 애플리케이션</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="25"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="25"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="25"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="20"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="20"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="20"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="20"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="20"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="20"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="20"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="20"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="20"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="20"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="20"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A186:A213"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>